--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2630.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2630.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7942246133494785</v>
+        <v>1.247862339019775</v>
       </c>
       <c r="B1">
-        <v>1.534085102379929</v>
+        <v>2.353152751922607</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.308939218521118</v>
       </c>
       <c r="D1">
-        <v>1.670003591059632</v>
+        <v>2.304743528366089</v>
       </c>
       <c r="E1">
-        <v>0.8895802128364592</v>
+        <v>1.367507338523865</v>
       </c>
     </row>
   </sheetData>
